--- a/MedicalLink/Templates/BC_DangKyBaoHiemYTe.xlsx
+++ b/MedicalLink/Templates/BC_DangKyBaoHiemYTe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>STT</t>
   </si>
@@ -119,24 +119,15 @@
     <t>&amp;=[DATA1].SO_DKBHYT</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].SO_VAOVIEN</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].BHYTFROMDATE</t>
   </si>
   <si>
     <t>&amp;=[DATA1].BHYTUTILDATE</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].NGAY_DANGKY</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].NGUOI_DANGKY</t>
   </si>
   <si>
-    <t>&amp;=[DATA1].TRANGTHAI</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].HUY_DANGKY</t>
   </si>
   <si>
@@ -144,6 +135,33 @@
   </si>
   <si>
     <t>Mã số: 31153</t>
+  </si>
+  <si>
+    <t>Đủ 5 năm + 6 tháng lương cơ bản</t>
+  </si>
+  <si>
+    <t>Nơi ĐK KCBBĐ</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MACSKCBBD</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].DU5NAM6THANGLUONGCOBAN</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].BHYT_LOAIID</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].BHYTDATE</t>
+  </si>
+  <si>
+    <t>Nơi sống</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].NOISINHSONG</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].SOVAOVIEN</t>
   </si>
 </sst>
 </file>
@@ -156,7 +174,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +223,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -339,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -382,24 +407,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -408,16 +415,55 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -700,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:I8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,148 +760,172 @@
     <col min="6" max="6" width="25.5703125" style="1" customWidth="1"/>
     <col min="7" max="8" width="9.85546875" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="19.85546875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="23.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" style="9" customWidth="1"/>
-    <col min="14" max="16" width="19.85546875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="19.85546875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="12" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19.85546875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="23.85546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" style="9" customWidth="1"/>
+    <col min="17" max="19" width="19.85546875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>39</v>
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>36</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="16"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="C3" s="26" t="s">
+    <row r="3" spans="1:19" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="C3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="20"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="25" t="s">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="17"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="17"/>
     </row>
-    <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:19" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="18" t="s">
+      <c r="H7" s="32"/>
+      <c r="I7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="18" t="s">
+      <c r="L7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="M7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="18" t="s">
+      <c r="P7" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="N7" s="18" t="s">
+      <c r="Q7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="R7" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="P7" s="18" t="s">
+      <c r="S7" s="36" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+    <row r="8" spans="1:19" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="27"/>
       <c r="G8" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="37"/>
     </row>
-    <row r="9" spans="1:16" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -904,8 +974,17 @@
       <c r="P9" s="5">
         <v>16</v>
       </c>
+      <c r="Q9" s="5">
+        <v>17</v>
+      </c>
+      <c r="R9" s="5">
+        <v>18</v>
+      </c>
+      <c r="S9" s="5">
+        <v>19</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>10</v>
       </c>
@@ -916,7 +995,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>30</v>
@@ -933,77 +1012,92 @@
       <c r="I10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="M10" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="10" t="s">
+      <c r="R10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="11" spans="1:16" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="29"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="21"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
+      <c r="L11" s="15"/>
       <c r="M11" s="15"/>
-      <c r="N11" s="14"/>
+      <c r="N11" s="15"/>
       <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="M14" s="28" t="s">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="M14:O14"/>
+  <mergeCells count="23">
+    <mergeCell ref="C2:L2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="P14:R14"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="C2:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="S7:S8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
     <mergeCell ref="K7:K8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="F7:F8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
